--- a/Fine Form Pre-Cast/35511/toedit7.xlsx
+++ b/Fine Form Pre-Cast/35511/toedit7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fine Form Pre-Cast\35511\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9461C185-3A12-4E1E-8A25-070F159358BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBCCC06-9ECD-4C23-ADED-EEA55CD8C300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="675" windowWidth="28890" windowHeight="19560" xr2:uid="{D6FB1261-C290-4EBE-B420-98AE580F9017}"/>
+    <workbookView xWindow="9555" yWindow="2535" windowWidth="28890" windowHeight="18450" xr2:uid="{D6FB1261-C290-4EBE-B420-98AE580F9017}"/>
   </bookViews>
   <sheets>
     <sheet name="to_add" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>Step Id</t>
   </si>
@@ -59,6 +59,78 @@
   </si>
   <si>
     <t>Tier 6</t>
+  </si>
+  <si>
+    <t>7ff27472-ce71-410d-9dc0-53c563d677f6</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Installers Checklist</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>Panel No. P-21</t>
+  </si>
+  <si>
+    <t>9c646580-ad6a-4438-a210-bef8fc5aa791</t>
+  </si>
+  <si>
+    <t>Panel No. P-121</t>
+  </si>
+  <si>
+    <t>7fbd5829-f3aa-4c0b-9106-2ab1af44cee9</t>
+  </si>
+  <si>
+    <t>work-in-progress</t>
+  </si>
+  <si>
+    <t>Panel No. P-24</t>
+  </si>
+  <si>
+    <t>098bbd1e-7e8b-4f09-8f67-b32a73c66e8e</t>
+  </si>
+  <si>
+    <t>Panel No. P-124</t>
+  </si>
+  <si>
+    <t>13d5f89d-2173-4611-b4d6-d8a2a68ff3ab</t>
+  </si>
+  <si>
+    <t>Panel No. P-27</t>
+  </si>
+  <si>
+    <t>9733a987-7586-41e2-a253-b4aa81095860</t>
+  </si>
+  <si>
+    <t>Panel No. P-127</t>
+  </si>
+  <si>
+    <t>3441fc16-f417-4547-a0bd-5c5c80d65cde</t>
+  </si>
+  <si>
+    <t>Panel No. P-30</t>
+  </si>
+  <si>
+    <t>72276d48-0258-4106-838f-395a600bd001</t>
+  </si>
+  <si>
+    <t>Panel No. P-130</t>
+  </si>
+  <si>
+    <t>52dd8b76-2809-4a2e-8ff6-19a962915164</t>
+  </si>
+  <si>
+    <t>Panel No. P-33</t>
+  </si>
+  <si>
+    <t>5ab2339b-65f7-44bb-b5f4-5629330f3913</t>
+  </si>
+  <si>
+    <t>Panel No. P-133</t>
   </si>
 </sst>
 </file>
@@ -919,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F2ADC0-CB01-4C78-A0B7-4CDD953FBAB6}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,6 +1040,266 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
